--- a/AIM/Results/FSMapXX.xlsx
+++ b/AIM/Results/FSMapXX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zxtan\Documents\University Documents\Coursework\AIM\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C558FC32-25BF-4561-9A83-9DCB2E7AB233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A27AA-9707-49E8-B495-AEE65130E783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{6ABDB842-914C-2445-BFE7-8CCD0536C6AF}"/>
   </bookViews>
@@ -568,7 +568,7 @@
   <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1119,7 +1119,7 @@
         <v>1E-14</v>
       </c>
       <c r="C6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="D6" s="4">
         <v>1.4211E-14</v>
@@ -1128,31 +1128,31 @@
         <v>1E-14</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="G6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="K6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="L6" s="4">
         <v>1.0657999999999999E-14</v>
       </c>
       <c r="M6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
+        <v>1E-14</v>
       </c>
       <c r="O6" s="4">
         <v>1E-14</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="S6" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="16"/>
@@ -1178,27 +1178,27 @@
       </c>
       <c r="V6" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="W6" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X6" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y6" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z6" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="24"/>
@@ -1206,11 +1206,11 @@
       </c>
       <c r="AC6" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AD6" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE6" s="5">
         <f t="shared" si="27"/>
@@ -3319,7 +3319,7 @@
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="R28" s="6">
         <f>SUM(R2:AF25)</f>
-        <v>185</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
